--- a/assignments/assignment2/Assignment_2_Data_and_Template - Output.xlsx
+++ b/assignments/assignment2/Assignment_2_Data_and_Template - Output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\git\Machine-Learning\UCSC-Extension\assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\git\Machine-Learning\UCSC-Extension\assignments\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -532,6 +532,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,9 +549,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3012,7 +3012,7 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B14"/>
+      <selection activeCell="B7" sqref="B7:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4420,7 +4420,7 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5841,7 +5841,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="25" t="s">
@@ -5855,7 +5855,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
@@ -5871,10 +5871,10 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="10">
@@ -5886,8 +5886,8 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="12">
         <v>1.65170135</v>
       </c>
@@ -5897,8 +5897,8 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="10">
@@ -5910,8 +5910,8 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="12">
         <v>1.8015734299999999</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="28" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -5936,7 +5936,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="25" t="s">
         <v>4</v>
       </c>
@@ -5976,14 +5976,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
@@ -6072,8 +6072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6253,32 +6253,32 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="17">
-        <v>0.26082460454536233</v>
+        <v>0.42181000741967262</v>
       </c>
       <c r="C7" s="17">
-        <v>0.85277087417737829</v>
+        <v>1.416127611022489</v>
       </c>
       <c r="D7" s="17">
-        <v>0.91837650200974708</v>
+        <v>1.114682176238323</v>
       </c>
       <c r="E7" s="17">
-        <v>0.32577201217394419</v>
+        <v>0.2057135400897718</v>
       </c>
       <c r="F7" s="17">
-        <v>3.8063733187597537E-2</v>
+        <v>8.900980589087398E-3</v>
       </c>
       <c r="G7" s="17">
-        <v>1.4649189382565739E-3</v>
+        <v>9.0297553707593129E-5</v>
       </c>
       <c r="H7" s="17">
-        <v>1.8570363703477861E-5</v>
+        <v>2.1477180670160721E-7</v>
       </c>
       <c r="I7" s="17">
-        <v>7.754107694549267E-8</v>
+        <v>1.197682519903858E-10</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -6306,30 +6306,30 @@
       <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="17">
-        <v>0.57530796515041249</v>
+        <v>0.91903144854048935</v>
       </c>
       <c r="C8" s="17">
-        <v>3.0166455107940719</v>
+        <v>5.7181291714131923</v>
       </c>
       <c r="D8" s="20">
-        <v>5.2101805535428891</v>
+        <v>8.3414337627574753</v>
       </c>
       <c r="E8" s="20">
-        <v>2.964052361204184</v>
+        <v>2.8529266384953669</v>
       </c>
       <c r="F8" s="20">
-        <v>0.55542263193898533</v>
+        <v>0.22877241545696711</v>
       </c>
       <c r="G8" s="20">
-        <v>3.4281978303945519E-2</v>
+        <v>4.3011032288181464E-3</v>
       </c>
       <c r="H8" s="20">
-        <v>6.9696790947971468E-4</v>
+        <v>1.8959166003158948E-5</v>
       </c>
       <c r="I8" s="17">
-        <v>4.6672846850080574E-6</v>
+        <v>1.9593938801572318E-8</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -6358,28 +6358,28 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
-        <v>0.46513285239665358</v>
+        <v>0.53980571875664418</v>
       </c>
       <c r="C9" s="18">
-        <v>3.9114789495356632</v>
-      </c>
-      <c r="D9" s="20">
-        <v>10.834517683469359</v>
-      </c>
-      <c r="E9" s="20">
-        <v>9.8851387852670651</v>
-      </c>
-      <c r="F9" s="20">
-        <v>2.9707120810729428</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0.29406474224499102</v>
-      </c>
-      <c r="H9" s="20">
-        <v>9.588042574373545E-3</v>
+        <v>6.2244236991578212</v>
+      </c>
+      <c r="D9" s="17">
+        <v>16.82766930954692</v>
+      </c>
+      <c r="E9" s="17">
+        <v>10.66625457620702</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1.5851233954784689</v>
+      </c>
+      <c r="G9" s="17">
+        <v>5.5230294856854253E-2</v>
+      </c>
+      <c r="H9" s="17">
+        <v>4.5118515556225828E-4</v>
       </c>
       <c r="I9" s="19">
-        <v>1.0297257044130241E-4</v>
+        <v>8.6416246361907205E-7</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -6408,28 +6408,28 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
-        <v>0.13784100838467431</v>
+        <v>8.5474821826217379E-2</v>
       </c>
       <c r="C10" s="18">
-        <v>1.859013375920467</v>
-      </c>
-      <c r="D10" s="20">
-        <v>8.258310175438881</v>
-      </c>
-      <c r="E10" s="20">
-        <v>12.083826179796191</v>
-      </c>
-      <c r="F10" s="20">
-        <v>5.8240132102931472</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0.92458072685127413</v>
-      </c>
-      <c r="H10" s="20">
-        <v>4.834726642928814E-2</v>
+        <v>1.826576845595417</v>
+      </c>
+      <c r="D10" s="17">
+        <v>9.1516804371411737</v>
+      </c>
+      <c r="E10" s="17">
+        <v>10.75045635616919</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2.9608479737258659</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.1911914523373156</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2.8945695584442969E-3</v>
       </c>
       <c r="I10" s="19">
-        <v>8.3272885679373245E-4</v>
+        <v>1.027454653499464E-5</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -6458,28 +6458,28 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
-        <v>1.4972856659342349E-2</v>
+        <v>3.648652826983699E-3</v>
       </c>
       <c r="C11" s="18">
-        <v>0.32385367567261208</v>
-      </c>
-      <c r="D11" s="20">
-        <v>2.3072656323841652</v>
-      </c>
-      <c r="E11" s="20">
-        <v>5.4144078496003134</v>
-      </c>
-      <c r="F11" s="20">
-        <v>4.1851298684407636</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1.065544310479579</v>
-      </c>
-      <c r="H11" s="20">
-        <v>8.9359080820279727E-2</v>
+        <v>0.14450083715292281</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.3417491826025061</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2.921026321825543</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1.4909488914966049</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.1784239695563479</v>
+      </c>
+      <c r="H11" s="17">
+        <v>5.0061838282779141E-3</v>
       </c>
       <c r="I11" s="19">
-        <v>2.468371219910268E-3</v>
+        <v>3.2932412266226138E-5</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -6508,28 +6508,28 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="17">
-        <v>5.9615019593203941E-4</v>
+        <v>4.1987546129869399E-5</v>
       </c>
       <c r="C12" s="18">
-        <v>2.0679495775848541E-2</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.23628100116847231</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0.8892467005669481</v>
-      </c>
-      <c r="F12" s="20">
-        <v>1.1023520789918231</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0.45011448749238481</v>
-      </c>
-      <c r="H12" s="20">
-        <v>6.0538305462274691E-2</v>
+        <v>3.081742820322462E-3</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5.3031687468430101E-2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.2139624958160839</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.2023965095857363</v>
+      </c>
+      <c r="G12" s="17">
+        <v>4.488813242929774E-2</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2.3341201625000831E-3</v>
       </c>
       <c r="I12" s="19">
-        <v>2.681897233194017E-3</v>
+        <v>2.8456274277932191E-5</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -6558,28 +6558,28 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
-        <v>8.7002456255774249E-6</v>
+        <v>1.3025729671541579E-7</v>
       </c>
       <c r="C13" s="18">
-        <v>4.8401169847627509E-4</v>
-      </c>
-      <c r="D13" s="20">
-        <v>8.8692073109506598E-3</v>
-      </c>
-      <c r="E13" s="20">
-        <v>5.3532602470688077E-2</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0.1064281494009417</v>
-      </c>
-      <c r="G13" s="20">
-        <v>6.9694622029008169E-2</v>
-      </c>
-      <c r="H13" s="20">
-        <v>1.503303354790581E-2</v>
+        <v>1.7718054662105831E-5</v>
+      </c>
+      <c r="D13" s="17">
+        <v>5.6505818273271786E-4</v>
+      </c>
+      <c r="E13" s="17">
+        <v>4.2250655819288992E-3</v>
+      </c>
+      <c r="F13" s="17">
+        <v>7.4069070631309084E-3</v>
+      </c>
+      <c r="G13" s="17">
+        <v>3.044412463732844E-3</v>
+      </c>
+      <c r="H13" s="17">
+        <v>2.9338184940709718E-4</v>
       </c>
       <c r="I13" s="19">
-        <v>1.06806722667593E-3</v>
+        <v>6.6286661646403436E-6</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
@@ -6608,28 +6608,28 @@
     </row>
     <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17">
-        <v>4.6540616865814417E-8</v>
+        <v>1.089374593268692E-10</v>
       </c>
       <c r="C14" s="18">
-        <v>4.1523750287238556E-6</v>
-      </c>
-      <c r="D14" s="20">
-        <v>1.220297183647122E-4</v>
-      </c>
-      <c r="E14" s="20">
-        <v>1.181243006227839E-3</v>
-      </c>
-      <c r="F14" s="20">
-        <v>3.7663224103154E-3</v>
-      </c>
-      <c r="G14" s="20">
-        <v>3.9554904610977493E-3</v>
-      </c>
-      <c r="H14" s="20">
-        <v>1.3683203678064621E-3</v>
+        <v>2.746181873183145E-8</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1.623097111509683E-6</v>
+      </c>
+      <c r="E14" s="17">
+        <v>2.24917303641729E-5</v>
+      </c>
+      <c r="F14" s="17">
+        <v>7.3074253404499707E-5</v>
+      </c>
+      <c r="G14" s="17">
+        <v>5.5663314133558052E-5</v>
+      </c>
+      <c r="H14" s="17">
+        <v>9.9411559864538276E-6</v>
       </c>
       <c r="I14" s="19">
-        <v>1.559121084220316E-4</v>
+        <v>4.1626305897347482E-7</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -7485,7 +7485,7 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7665,32 +7665,32 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="17">
-        <v>1.303280946778704E-5</v>
+        <v>2.5298683390901781E-5</v>
       </c>
       <c r="C7" s="17">
-        <v>3.1268802829124357E-4</v>
+        <v>8.1137725825714186E-4</v>
       </c>
       <c r="D7" s="17">
-        <v>2.149500903269382E-3</v>
+        <v>5.0853788328569759E-3</v>
       </c>
       <c r="E7" s="17">
-        <v>4.2336717240967769E-3</v>
+        <v>6.2287279156408148E-3</v>
       </c>
       <c r="F7" s="17">
-        <v>2.389185654472048E-3</v>
+        <v>1.490908459300956E-3</v>
       </c>
       <c r="G7" s="17">
-        <v>3.8630985456499428E-4</v>
+        <v>6.973939358140292E-5</v>
       </c>
       <c r="H7" s="17">
-        <v>1.789677777910857E-5</v>
+        <v>6.3750107816174563E-7</v>
       </c>
       <c r="I7" s="17">
-        <v>2.3755658553052031E-7</v>
+        <v>1.138830919312522E-9</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -7718,30 +7718,30 @@
       <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="17">
-        <v>5.0031884334658551E-5</v>
+        <v>1.061464886145967E-4</v>
       </c>
       <c r="C8" s="17">
-        <v>1.9679722805901732E-3</v>
-      </c>
-      <c r="D8" s="17">
-        <v>2.217911762974353E-2</v>
-      </c>
-      <c r="E8" s="17">
-        <v>7.1618087885233619E-2</v>
-      </c>
-      <c r="F8" s="17">
-        <v>6.6260445163856735E-2</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1.7564635715513841E-2</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1.3340653831157611E-3</v>
+        <v>6.4931226759654048E-3</v>
+      </c>
+      <c r="D8" s="20">
+        <v>7.7620628245214665E-2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.1813327584170846</v>
+      </c>
+      <c r="F8" s="20">
+        <v>8.2784866313152142E-2</v>
+      </c>
+      <c r="G8" s="20">
+        <v>7.3858622696637488E-3</v>
+      </c>
+      <c r="H8" s="20">
+        <v>1.2877365629887819E-4</v>
       </c>
       <c r="I8" s="17">
-        <v>2.9031418288618098E-5</v>
+        <v>4.387614047295237E-7</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
@@ -7770,28 +7770,28 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
-        <v>7.9678611883246089E-5</v>
-      </c>
-      <c r="C9" s="17">
-        <v>5.138221071811673E-3</v>
-      </c>
-      <c r="D9" s="17">
-        <v>9.4937323195254983E-2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.5025905854935474</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0.76233329150150153</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0.33130545993122468</v>
-      </c>
-      <c r="H9" s="17">
-        <v>4.1253943588759362E-2</v>
-      </c>
-      <c r="I9" s="17">
-        <v>1.471822771245111E-3</v>
+        <v>1.4113209318419059E-4</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1.646633035231165E-2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.37544250133670432</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1.6728831792896679</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.4566773363662</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0.24787725692085011</v>
+      </c>
+      <c r="H9" s="18">
+        <v>8.2430051054350542E-3</v>
+      </c>
+      <c r="I9" s="19">
+        <v>5.3568566576318982E-5</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
@@ -7820,28 +7820,28 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
-        <v>5.2640832007885402E-5</v>
-      </c>
-      <c r="C10" s="17">
-        <v>5.5653525450862773E-3</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0.16858377961236889</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1.4631608172780171</v>
-      </c>
-      <c r="F10" s="17">
-        <v>3.6384927059911401</v>
-      </c>
-      <c r="G10" s="17">
-        <v>2.5924126084104442</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0.52922446378777033</v>
-      </c>
-      <c r="I10" s="17">
-        <v>3.0954861718726811E-2</v>
+        <v>5.9464582240038733E-5</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1.32328222445367E-2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.57546929269824276</v>
+      </c>
+      <c r="E10" s="18">
+        <v>4.8906591866759603</v>
+      </c>
+      <c r="F10" s="18">
+        <v>8.1224718244910399</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2.6362378846929122</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.16720780640891339</v>
+      </c>
+      <c r="I10" s="19">
+        <v>2.0725454880322872E-3</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -7870,28 +7870,28 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
-        <v>1.44274579133129E-5</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2.500683111463052E-3</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0.1241882983187538</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1.7670785760903771</v>
-      </c>
-      <c r="F11" s="17">
-        <v>7.2041743884830289</v>
-      </c>
-      <c r="G11" s="17">
-        <v>8.4152252019863987</v>
-      </c>
-      <c r="H11" s="17">
-        <v>2.816439577768298</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0.27007743763408198</v>
+        <v>7.9396873341708461E-6</v>
+      </c>
+      <c r="C11" s="18">
+        <v>3.3699276109166679E-3</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.2795202736908986</v>
+      </c>
+      <c r="E11" s="18">
+        <v>4.5308702239605774</v>
+      </c>
+      <c r="F11" s="18">
+        <v>14.352432147277041</v>
+      </c>
+      <c r="G11" s="18">
+        <v>8.8847446569881043</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1.0748304677045419</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2.5410344652414971E-2</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -7920,28 +7920,28 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="17">
-        <v>1.640374362970438E-6</v>
-      </c>
-      <c r="C12" s="17">
-        <v>4.6613394178474842E-4</v>
-      </c>
-      <c r="D12" s="17">
-        <v>3.7951736489022413E-2</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0.8853311532245155</v>
-      </c>
-      <c r="F12" s="17">
-        <v>5.9174283944995949</v>
-      </c>
-      <c r="G12" s="17">
-        <v>11.3321795322097</v>
-      </c>
-      <c r="H12" s="17">
-        <v>6.2179475084194387</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0.97753840051881746</v>
+        <v>3.3593934173342759E-7</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2.7195753983211588E-4</v>
+      </c>
+      <c r="D12" s="18">
+        <v>4.3024606795226891E-2</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1.3301734811338839</v>
+      </c>
+      <c r="F12" s="18">
+        <v>8.0366532358302418</v>
+      </c>
+      <c r="G12" s="18">
+        <v>9.4889409413458594</v>
+      </c>
+      <c r="H12" s="18">
+        <v>2.1894540070152262</v>
+      </c>
+      <c r="I12" s="19">
+        <v>9.8725531100667743E-2</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -7970,28 +7970,28 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
-        <v>7.7371713699175648E-8</v>
-      </c>
-      <c r="C13" s="17">
-        <v>3.6045319524517818E-5</v>
-      </c>
-      <c r="D13" s="17">
-        <v>4.8113695290940466E-3</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0.18401012373056139</v>
-      </c>
-      <c r="F13" s="17">
-        <v>2.0163591550340558</v>
-      </c>
-      <c r="G13" s="17">
-        <v>6.3306344344788616</v>
-      </c>
-      <c r="H13" s="17">
-        <v>5.6948167026340117</v>
-      </c>
-      <c r="I13" s="17">
-        <v>1.4677951040280131</v>
+        <v>4.5043359281798892E-9</v>
+      </c>
+      <c r="C13" s="18">
+        <v>6.9549509966070194E-6</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2.0986158361249842E-3</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.1237506207998026</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1.426058678752441</v>
+      </c>
+      <c r="G13" s="18">
+        <v>3.2114633859800841</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1.4133317753386221</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.1215516449469676</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
@@ -8020,28 +8020,28 @@
     </row>
     <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17">
-        <v>1.5139360999268119E-9</v>
-      </c>
-      <c r="C14" s="17">
-        <v>1.1563069014794869E-6</v>
-      </c>
-      <c r="D14" s="17">
-        <v>2.5304156260016141E-4</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1.586586570828815E-2</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0.28502887416646111</v>
-      </c>
-      <c r="G14" s="17">
-        <v>1.467124977574487</v>
-      </c>
-      <c r="H14" s="17">
-        <v>2.16370742135567</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0.91428822919588526</v>
+        <v>1.9138730025058501E-11</v>
+      </c>
+      <c r="C14" s="18">
+        <v>5.6363698559542399E-8</v>
+      </c>
+      <c r="D14" s="18">
+        <v>3.2438549033978197E-5</v>
+      </c>
+      <c r="E14" s="18">
+        <v>3.6483704195022291E-3</v>
+      </c>
+      <c r="F14" s="18">
+        <v>8.0188483594080207E-2</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0.34442974090914957</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0.28911116140189053</v>
+      </c>
+      <c r="I14" s="19">
+        <v>4.7424705306046443E-2</v>
       </c>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -8896,7 +8896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8906,7 +8906,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="372" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
     </row>

--- a/assignments/assignment2/Assignment_2_Data_and_Template - Output.xlsx
+++ b/assignments/assignment2/Assignment_2_Data_and_Template - Output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="6"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -157,7 +157,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="6"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -170,7 +170,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="6"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -180,7 +180,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="6"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -194,7 +194,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="6"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -204,7 +204,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="6"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -217,7 +217,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="6"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -227,7 +227,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="6"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -240,7 +240,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="6"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -250,14 +250,42 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="6"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-I followed the formula - N * W * PDF, where W is cumulative multiple of bin sizes across all dimensions (in our case 2 dimensions). I see the Female histograms have high values near the min values of height and hand span, and Male histograms have high values near the max values of height and hand span. This is as per the expectation in real life.</t>
+I followed the formula - N * W * PDF, where W is cumulative multiple of bin sizes across all dimensions (in our case 2 dimensions). I see the Female histograms have high values near the min values of height and hand span, and Male histograms have high values near the max values of height and hand span. This is as per the expectation in real life.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verification of Bayesian classifier output against Bayesian (reconstructed) Histogram classifier output:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Below are the values of running the Histogram classifier for the same queries using the reconstructed Bayesian histogram:
+[69, 17.5] 0.734286851385
+[66, 22] 0.391984282642
+[70, 21.5] 0.0941054745731
+[69, 23.5] 0.00516713281185
+For a long time I have been struggling to reconcile the fact that these values are differing from the Bayesian classifier output. The only explanation I have come up with is that when calculating Bayesian classifier we are not dividing our PDF curve into bins, hence we are getting the result of the classifier with a bin of arbitrary width centered around the query vector. When using the reconstructed histogram, we are dividing the sample space into bins, so we are "approximating" the PDF curve into discrete blocks for our calculation. If I am being honest though, I do not feel comfortable with this explanation, because the difference in the predictions is too high. If possible please address this question in class during the solution discussion. I would love to know whether I made a mistake in my calculation or there is another explanation that I have not thought of yet.</t>
     </r>
   </si>
 </sst>
@@ -306,7 +334,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="6"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -314,14 +342,14 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="6"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="6"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3012,7 +3040,7 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:I14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6072,7 +6100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -8896,7 +8924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8905,7 +8935,7 @@
     <col min="8" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="372" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="305.25" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>36</v>
       </c>
